--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
     <t>col2</t>
   </si>
   <si>
-    <t>col3</t>
+    <t>col3new</t>
   </si>
   <si>
     <t>q</t>
